--- a/презентация_изобр/температура.xlsx
+++ b/презентация_изобр/температура.xlsx
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,12 +59,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2077,13 +2082,17 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="101600" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2523,6 +2532,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="1542976447"/>
         <c:axId val="1542971039"/>
@@ -2539,12 +2569,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="lt1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2555,9 +2582,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2581,20 +2608,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2602,11 +2615,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:alpha val="0"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2615,9 +2624,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2646,7 +2655,9 @@
   <c:spPr>
     <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3281,6 +3292,1109 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$B$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82CE-4FB5-8E39-D9449B089586}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PID</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$1:$C$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>20.388768140813401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.307285463940197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.9967899360147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.299530290065903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.141809070478502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.035162536670498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.214275737096997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.4200039795371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.405402566348002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.289910217649599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.904617279683102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.259251917380201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.224535161662399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.471649592489399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.655494658345603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.781392297430301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.664484333240203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.381625662383399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.626929589742801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.909967033613697</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.572816633219702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.640414736861302</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.550276451365697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.827035807907102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45.771749145552398</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.226094677499702</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.450836064943701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.1313931048103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50.496903110736902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55.518000697461098</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.136362961932797</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63.477392491059199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.005539951362607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64.597124743202599</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.524340835491202</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.362361414019702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55.845526747523799</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52.706134645113501</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.529501821902898</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49.652424952191197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.1208968583543</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51.7096267735174</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53.993411719439599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56.451107710158702</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.578382511597297</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.986035589810598</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.465816946219199</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60.013897578710598</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58.811508032993899</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57.1707993345753</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55.460081429565903</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54.025288682098498</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.123611204843598</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52.8812502609535</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53.281296885143199</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54.181171219209801</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55.3532558248573</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56.538385394115302</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57.500324459172603</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>58.0703371597724</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>58.1739896766288</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>57.836621485243001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>57.168500719007604</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>56.334606050313397</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>55.516538343383303</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>54.874886779486303</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>54.519464598117501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>54.492539728289699</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>54.767105181319202</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>55.259051564045997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55.849460346166801</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>56.411602585639102</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56.8368281609146</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>57.054322898829597</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>57.041420924764402</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>56.823357822385802</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.463552959628203</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>56.047279533413302</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>55.662610197180399</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>55.382683461338303</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>55.252676048429798</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>55.283600327581603</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>55.453484466041601</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>55.714974622582702</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>56.007220082030301</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>56.2692638245952</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>56.452136025740899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>56.527380964342498</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56.490678203327199</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>56.360323154537703</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>56.171374247007897</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55.967053433057401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>55.7893750213305</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>55.670936374322501</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>55.629383366250401</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>55.665384372763299</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>55.764169019243802</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>55.899975764456599</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>56.042240367837998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>56.162127177684297</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>56.2380748456033</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>56.259354200319599</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>56.227128709978899</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>56.153053166390002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>56.055930696602204</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>55.957281892040697</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>55.876811442493597</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>55.828680979262501</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>55.819247571753102</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55.8465718818249</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>55.901619268682197</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55.970749107227</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56.038872071603002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>56.092583786141503</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82CE-4FB5-8E39-D9449B089586}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="355569504"/>
+        <c:axId val="355570752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="355569504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355570752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355570752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355569504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3401,6 +4515,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3918,6 +5072,535 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4433,7 +6116,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5038,6 +6721,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>374507</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>115598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5311,11 +7024,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BN45" sqref="BN45"/>
+    <sheetView tabSelected="1" topLeftCell="Q81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP129" sqref="AP129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -5327,8 +7043,8 @@
       <c r="C1">
         <v>20.388768140813401</v>
       </c>
-      <c r="H1">
-        <v>0</v>
+      <c r="D1" s="3">
+        <v>34.42</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -5341,9 +7057,10 @@
       <c r="C2">
         <v>40.307285463940197</v>
       </c>
-      <c r="H2" s="1">
-        <v>6.0735831983249707E-8</v>
-      </c>
+      <c r="D2" s="3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -5355,9 +7072,10 @@
       <c r="C3">
         <v>60.9967899360147</v>
       </c>
-      <c r="H3" s="1">
-        <v>2.1864507462324102E-6</v>
-      </c>
+      <c r="D3" s="3">
+        <v>35.64</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -5369,9 +7087,10 @@
       <c r="C4">
         <v>78.299530290065903</v>
       </c>
-      <c r="H4" s="1">
-        <v>5.83608474361918E-5</v>
-      </c>
+      <c r="D4" s="3">
+        <v>35.520000000000003</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -5383,8 +7102,8 @@
       <c r="C5">
         <v>89.141809070478502</v>
       </c>
-      <c r="H5">
-        <v>1.4772395515426601E-3</v>
+      <c r="D5" s="3">
+        <v>37.11</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -5397,8 +7116,8 @@
       <c r="C6">
         <v>92.035162536670498</v>
       </c>
-      <c r="H6">
-        <v>3.6938917083267603E-2</v>
+      <c r="D6" s="3">
+        <v>37.11</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -5411,8 +7130,8 @@
       <c r="C7">
         <v>87.214275737096997</v>
       </c>
-      <c r="H7">
-        <v>0.91121022369959404</v>
+      <c r="D7" s="3">
+        <v>39.06</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -5425,8 +7144,8 @@
       <c r="C8">
         <v>76.4200039795371</v>
       </c>
-      <c r="H8">
-        <v>7.0274146891632299</v>
+      <c r="D8" s="3">
+        <v>39.549999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -5439,6 +7158,9 @@
       <c r="C9">
         <v>62.405402566348002</v>
       </c>
+      <c r="D9" s="3">
+        <v>38.94</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -5450,6 +7172,9 @@
       <c r="C10">
         <v>48.289910217649599</v>
       </c>
+      <c r="D10" s="3">
+        <v>43.33</v>
+      </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -5461,6 +7186,9 @@
       <c r="C11">
         <v>36.904617279683102</v>
       </c>
+      <c r="D11" s="3">
+        <v>41.63</v>
+      </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5472,6 +7200,9 @@
       <c r="C12">
         <v>30.259251917380201</v>
       </c>
+      <c r="D12" s="3">
+        <v>41.87</v>
+      </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -5483,6 +7214,9 @@
       <c r="C13">
         <v>29.224535161662399</v>
       </c>
+      <c r="D13" s="3">
+        <v>42.36</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -5494,6 +7228,9 @@
       <c r="C14">
         <v>33.471649592489399</v>
       </c>
+      <c r="D14" s="3">
+        <v>44.92</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5505,6 +7242,9 @@
       <c r="C15">
         <v>41.655494658345603</v>
       </c>
+      <c r="D15" s="3">
+        <v>44.92</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -5516,9 +7256,12 @@
       <c r="C16">
         <v>51.781392297430301</v>
       </c>
+      <c r="D16" s="3">
+        <v>46.26</v>
+      </c>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31</v>
       </c>
@@ -5528,8 +7271,11 @@
       <c r="C17">
         <v>61.664484333240203</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>29</v>
       </c>
@@ -5539,8 +7285,11 @@
       <c r="C18">
         <v>69.381625662383399</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>48.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>33</v>
       </c>
@@ -5550,8 +7299,11 @@
       <c r="C19">
         <v>73.626929589742801</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32</v>
       </c>
@@ -5561,8 +7313,11 @@
       <c r="C20">
         <v>73.909967033613697</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>49.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>33</v>
       </c>
@@ -5572,8 +7327,11 @@
       <c r="C21">
         <v>70.572816633219702</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>51.39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>33</v>
       </c>
@@ -5583,8 +7341,11 @@
       <c r="C22">
         <v>64.640414736861302</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>34</v>
       </c>
@@ -5594,8 +7355,11 @@
       <c r="C23">
         <v>57.550276451365697</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>36</v>
       </c>
@@ -5605,8 +7369,11 @@
       <c r="C24">
         <v>50.827035807907102</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>35</v>
       </c>
@@ -5616,8 +7383,11 @@
       <c r="C25">
         <v>45.771749145552398</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>55.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>37</v>
       </c>
@@ -5627,8 +7397,11 @@
       <c r="C26">
         <v>43.226094677499702</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -5638,8 +7411,11 @@
       <c r="C27">
         <v>43.450836064943701</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>56.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -5649,8 +7425,11 @@
       <c r="C28">
         <v>46.1313931048103</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>56.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>37</v>
       </c>
@@ -5660,8 +7439,11 @@
       <c r="C29">
         <v>50.496903110736902</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>57.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>38</v>
       </c>
@@ -5671,8 +7453,11 @@
       <c r="C30">
         <v>55.518000697461098</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>38</v>
       </c>
@@ -5682,8 +7467,11 @@
       <c r="C31">
         <v>60.136362961932797</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40</v>
       </c>
@@ -5693,8 +7481,11 @@
       <c r="C32">
         <v>63.477392491059199</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="3">
+        <v>58.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -5704,8 +7495,11 @@
       <c r="C33">
         <v>65.005539951362607</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3">
+        <v>58.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>39</v>
       </c>
@@ -5715,8 +7509,11 @@
       <c r="C34">
         <v>64.597124743202599</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>40</v>
       </c>
@@ -5726,8 +7523,11 @@
       <c r="C35">
         <v>62.524340835491202</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="3">
+        <v>57.98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>41</v>
       </c>
@@ -5737,8 +7537,11 @@
       <c r="C36">
         <v>59.362361414019702</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <v>60.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41</v>
       </c>
@@ -5748,8 +7551,11 @@
       <c r="C37">
         <v>55.845526747523799</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="3">
+        <v>56.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42</v>
       </c>
@@ -5759,8 +7565,11 @@
       <c r="C38">
         <v>52.706134645113501</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
+        <v>57.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>41</v>
       </c>
@@ -5770,8 +7579,11 @@
       <c r="C39">
         <v>50.529501821902898</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <v>57.74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>42</v>
       </c>
@@ -5781,8 +7593,11 @@
       <c r="C40">
         <v>49.652424952191197</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="3">
+        <v>58.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>43</v>
       </c>
@@ -5792,8 +7607,11 @@
       <c r="C41">
         <v>50.1208968583543</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="3">
+        <v>57.86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43</v>
       </c>
@@ -5803,8 +7621,11 @@
       <c r="C42">
         <v>51.7096267735174</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="3">
+        <v>58.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5814,8 +7635,11 @@
       <c r="C43">
         <v>53.993411719439599</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="3">
+        <v>59.33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5825,8 +7649,11 @@
       <c r="C44">
         <v>56.451107710158702</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="3">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5836,8 +7663,11 @@
       <c r="C45">
         <v>58.578382511597297</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="3">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5847,8 +7677,11 @@
       <c r="C46">
         <v>59.986035589810598</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="3">
+        <v>57.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -5858,8 +7691,11 @@
       <c r="C47">
         <v>60.465816946219199</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="3">
+        <v>58.84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -5869,8 +7705,11 @@
       <c r="C48">
         <v>60.013897578710598</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3">
+        <v>58.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -5880,8 +7719,11 @@
       <c r="C49">
         <v>58.811508032993899</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="3">
+        <v>57.86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
@@ -5891,8 +7733,11 @@
       <c r="C50">
         <v>57.1707993345753</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3">
+        <v>57.37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
@@ -5902,8 +7747,11 @@
       <c r="C51">
         <v>55.460081429565903</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="3">
+        <v>57.74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>42</v>
       </c>
@@ -5913,8 +7761,11 @@
       <c r="C52">
         <v>54.025288682098498</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="3">
+        <v>57.62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>42</v>
       </c>
@@ -5924,8 +7775,11 @@
       <c r="C53">
         <v>53.123611204843598</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="3">
+        <v>58.47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44</v>
       </c>
@@ -5935,8 +7789,11 @@
       <c r="C54">
         <v>52.8812502609535</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="3">
+        <v>56.64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>44</v>
       </c>
@@ -5946,8 +7803,11 @@
       <c r="C55">
         <v>53.281296885143199</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="3">
+        <v>58.23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>44</v>
       </c>
@@ -5957,8 +7817,11 @@
       <c r="C56">
         <v>54.181171219209801</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="3">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>44</v>
       </c>
@@ -5968,8 +7831,11 @@
       <c r="C57">
         <v>55.3532558248573</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="3">
+        <v>57.13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>44</v>
       </c>
@@ -5979,8 +7845,11 @@
       <c r="C58">
         <v>56.538385394115302</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="3">
+        <v>57.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>44</v>
       </c>
@@ -5990,8 +7859,11 @@
       <c r="C59">
         <v>57.500324459172603</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="3">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>44</v>
       </c>
@@ -6001,8 +7873,11 @@
       <c r="C60">
         <v>58.0703371597724</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="3">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>43</v>
       </c>
@@ -6012,8 +7887,11 @@
       <c r="C61">
         <v>58.1739896766288</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="3">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>44</v>
       </c>
@@ -6023,8 +7901,11 @@
       <c r="C62">
         <v>57.836621485243001</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="3">
+        <v>56.64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>43</v>
       </c>
@@ -6034,8 +7915,11 @@
       <c r="C63">
         <v>57.168500719007604</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="3">
+        <v>58.59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>44</v>
       </c>
@@ -6045,8 +7929,11 @@
       <c r="C64">
         <v>56.334606050313397</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="3">
+        <v>56.27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>44</v>
       </c>
@@ -6056,8 +7943,11 @@
       <c r="C65">
         <v>55.516538343383303</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="3">
+        <v>54.93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>44</v>
       </c>
@@ -6067,8 +7957,11 @@
       <c r="C66">
         <v>54.874886779486303</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="3">
+        <v>57.01</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>44</v>
       </c>
@@ -6078,8 +7971,11 @@
       <c r="C67">
         <v>54.519464598117501</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="3">
+        <v>55.91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>45</v>
       </c>
@@ -6089,8 +7985,11 @@
       <c r="C68">
         <v>54.492539728289699</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="3">
+        <v>57.37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>45</v>
       </c>
@@ -6100,8 +7999,11 @@
       <c r="C69">
         <v>54.767105181319202</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="3">
+        <v>56.27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>45</v>
       </c>
@@ -6111,8 +8013,11 @@
       <c r="C70">
         <v>55.259051564045997</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="3">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>45</v>
       </c>
@@ -6122,8 +8027,11 @@
       <c r="C71">
         <v>55.849460346166801</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="3">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>45</v>
       </c>
@@ -6133,8 +8041,11 @@
       <c r="C72">
         <v>56.411602585639102</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="3">
+        <v>55.54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>46</v>
       </c>
@@ -6144,8 +8055,11 @@
       <c r="C73">
         <v>56.8368281609146</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="3">
+        <v>55.54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>46</v>
       </c>
@@ -6155,8 +8069,11 @@
       <c r="C74">
         <v>57.054322898829597</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="3">
+        <v>56.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>46</v>
       </c>
@@ -6166,8 +8083,11 @@
       <c r="C75">
         <v>57.041420924764402</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="3">
+        <v>54.93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>45</v>
       </c>
@@ -6177,8 +8097,11 @@
       <c r="C76">
         <v>56.823357822385802</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="3">
+        <v>53.96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>47</v>
       </c>
@@ -6188,8 +8111,11 @@
       <c r="C77">
         <v>56.463552959628203</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="3">
+        <v>54.08</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>47</v>
       </c>
@@ -6199,8 +8125,11 @@
       <c r="C78">
         <v>56.047279533413302</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="3">
+        <v>54.93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>48</v>
       </c>
@@ -6210,8 +8139,11 @@
       <c r="C79">
         <v>55.662610197180399</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="3">
+        <v>54.69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>49</v>
       </c>
@@ -6221,8 +8153,11 @@
       <c r="C80">
         <v>55.382683461338303</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="3">
+        <v>54.69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>51</v>
       </c>
@@ -6232,8 +8167,11 @@
       <c r="C81">
         <v>55.252676048429798</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="3">
+        <v>54.57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>52</v>
       </c>
@@ -6243,8 +8181,11 @@
       <c r="C82">
         <v>55.283600327581603</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="3">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>53</v>
       </c>
@@ -6255,7 +8196,7 @@
         <v>55.453484466041601</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>54</v>
       </c>
@@ -6266,7 +8207,7 @@
         <v>55.714974622582702</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>54</v>
       </c>
@@ -6277,7 +8218,7 @@
         <v>56.007220082030301</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>55</v>
       </c>
@@ -6288,7 +8229,7 @@
         <v>56.2692638245952</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>56</v>
       </c>
@@ -6299,7 +8240,7 @@
         <v>56.452136025740899</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>55</v>
       </c>
@@ -6310,7 +8251,7 @@
         <v>56.527380964342498</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>56</v>
       </c>
@@ -6321,7 +8262,7 @@
         <v>56.490678203327199</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>57</v>
       </c>
@@ -6332,7 +8273,7 @@
         <v>56.360323154537703</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>57</v>
       </c>
@@ -6343,7 +8284,7 @@
         <v>56.171374247007897</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>57</v>
       </c>
@@ -6354,7 +8295,7 @@
         <v>55.967053433057401</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>58</v>
       </c>
@@ -6365,7 +8306,7 @@
         <v>55.7893750213305</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>57</v>
       </c>
@@ -6376,7 +8317,7 @@
         <v>55.670936374322501</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>58</v>
       </c>
@@ -6387,7 +8328,7 @@
         <v>55.629383366250401</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>58</v>
       </c>
